--- a/Please Add your Goals and objectivies.xlsx
+++ b/Please Add your Goals and objectivies.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arana6\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22980" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22980" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Goal Category</t>
   </si>
@@ -36,51 +41,18 @@
     <t>Demonstrated enhancement of Practice capability with measure outcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain Practice level maturity in terms of advancement of holistic &amp; real Solutions, Frameworks, Reusable components, Best Practices </t>
-  </si>
-  <si>
     <t xml:space="preserve">Key Focus Areas </t>
   </si>
   <si>
     <t>Vital Assets/People</t>
   </si>
   <si>
-    <t>Number of Escalations</t>
-  </si>
-  <si>
-    <t>Timely and accurate delivery of tasks Quality Deliverable</t>
-  </si>
-  <si>
-    <t>Timely accurate &amp; status reporting with issues and risks</t>
-  </si>
-  <si>
-    <t>Relationship building onsite partners, vendors,  offshore managers.</t>
-  </si>
-  <si>
-    <t>Pro-activeness: Taking initiative, Driving the roadmaps or architecture initiatives</t>
-  </si>
-  <si>
-    <t>Bottom of Form</t>
-  </si>
-  <si>
     <t xml:space="preserve">Architecture Work streams </t>
   </si>
   <si>
-    <t>  </t>
-  </si>
-  <si>
     <t>Project Consulting: Solution Definition</t>
   </si>
   <si>
-    <t>Patterns development and adoption</t>
-  </si>
-  <si>
-    <t>Frameworks &amp; Portfolio Management (should meet target cost savings)</t>
-  </si>
-  <si>
-    <t>Product/Tool Evaluations and certifications</t>
-  </si>
-  <si>
     <t>PAX contributions - atleast 6 messages/discussion threads per month </t>
   </si>
   <si>
@@ -93,17 +65,59 @@
     <t>System Design  Pattern identification, Existing Patterns adoption</t>
   </si>
   <si>
-    <t>End to End Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reviews (Architecture and Design)  </t>
+  </si>
+  <si>
+    <t>Improve the process for incident management.</t>
+  </si>
+  <si>
+    <t>Achieve Inter and intra team  synergy for optimal business output</t>
+  </si>
+  <si>
+    <t>Develop mature models using robust ended  architecture and using best real time industry practices.</t>
+  </si>
+  <si>
+    <t>Generic platform implementation using more SOLID principles.</t>
+  </si>
+  <si>
+    <t>upskill peers to work seamlessly together</t>
+  </si>
+  <si>
+    <r>
+      <t>Implement solutions keeping Project management triangle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>model in mind.</t>
+    </r>
+  </si>
+  <si>
+    <t>End to End Implementation using open end architecture</t>
+  </si>
+  <si>
+    <t>Focus on becoming SME , doing relevant certifications.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +143,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -261,57 +282,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,20 +644,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +668,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -639,171 +679,140 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5" t="s">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="A20:A24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -815,7 +824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -827,7 +836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
